--- a/rfuse/rfuse_busy_12_summary.xlsx
+++ b/rfuse/rfuse_busy_12_summary.xlsx
@@ -446,19 +446,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1192</v>
+        <v>1278</v>
       </c>
       <c r="C3" s="3">
-        <v>2615</v>
+        <v>2556</v>
       </c>
       <c r="D3" s="3">
-        <v>4835</v>
+        <v>4394</v>
       </c>
       <c r="E3" s="3">
-        <v>8714</v>
+        <v>9330</v>
       </c>
       <c r="F3" s="3">
-        <v>15100</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -493,19 +493,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>1622</v>
+        <v>1636</v>
       </c>
       <c r="C8" s="3">
-        <v>3330</v>
+        <v>3313</v>
       </c>
       <c r="D8" s="3">
-        <v>7209</v>
+        <v>7193</v>
       </c>
       <c r="E8" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="F8" s="3">
-        <v>33400</v>
+        <v>33300</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -540,19 +540,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>1684</v>
+        <v>1060</v>
       </c>
       <c r="C13" s="3">
-        <v>2386</v>
+        <v>2356</v>
       </c>
       <c r="D13" s="3">
-        <v>4124</v>
+        <v>4691</v>
       </c>
       <c r="E13" s="3">
-        <v>7380</v>
+        <v>7333</v>
       </c>
       <c r="F13" s="3">
-        <v>6784</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -587,19 +587,19 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>2283</v>
+        <v>2396</v>
       </c>
       <c r="C18" s="3">
-        <v>5635</v>
+        <v>5214</v>
       </c>
       <c r="D18" s="3">
-        <v>9669</v>
+        <v>11200</v>
       </c>
       <c r="E18" s="3">
-        <v>22700</v>
+        <v>24100</v>
       </c>
       <c r="F18" s="3">
-        <v>20200</v>
+        <v>20300</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -634,19 +634,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>2572</v>
+        <v>2566</v>
       </c>
       <c r="C23" s="3">
-        <v>4958</v>
+        <v>4995</v>
       </c>
       <c r="D23" s="3">
-        <v>9102</v>
+        <v>8865</v>
       </c>
       <c r="E23" s="3">
-        <v>13800</v>
+        <v>14300</v>
       </c>
       <c r="F23" s="3">
-        <v>20800</v>
+        <v>17200</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -681,19 +681,19 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>68400</v>
+        <v>19200</v>
       </c>
       <c r="C28" s="3">
-        <v>125000</v>
+        <v>107000</v>
       </c>
       <c r="D28" s="3">
-        <v>290000</v>
+        <v>272000</v>
       </c>
       <c r="E28" s="3">
-        <v>502000</v>
+        <v>367000</v>
       </c>
       <c r="F28" s="3">
-        <v>574000</v>
+        <v>619000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -728,19 +728,19 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>446</v>
+        <v>1125</v>
       </c>
       <c r="C33" s="3">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="D33" s="3">
-        <v>1720</v>
+        <v>1773</v>
       </c>
       <c r="E33" s="3">
-        <v>3477</v>
+        <v>3645</v>
       </c>
       <c r="F33" s="3">
-        <v>4841</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -775,19 +775,19 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>2363</v>
+        <v>2188</v>
       </c>
       <c r="C38" s="3">
-        <v>6037</v>
+        <v>4729</v>
       </c>
       <c r="D38" s="3">
-        <v>10700</v>
+        <v>11800</v>
       </c>
       <c r="E38" s="3">
-        <v>19400</v>
+        <v>21500</v>
       </c>
       <c r="F38" s="3">
-        <v>21700</v>
+        <v>19900</v>
       </c>
     </row>
   </sheetData>
